--- a/biology/Botanique/Inula/Inula.xlsx
+++ b/biology/Botanique/Inula/Inula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inula (les inules) est un genre de plantes à fleurs de la famille des Asteraceae qui comprend environ 90 espèces.
 C'est du nom de ce genre que dérive le mot inuline qui désigne une famille de molécules du groupe des fibres alimentaires.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom latin du genre Inula dériverait du grec hinaein, qui signifie « purifier », référence aux propriétés médicinales de la plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom latin du genre Inula dériverait du grec hinaein, qui signifie « purifier », référence aux propriétés médicinales de la plante.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont basilaires et caulinaires.
 Classiquement pour cette famille, ce qu'on croit être une fleur est en fait un capitule formé de nombreux fleurons et demi-fleurons entourés d'un involucre de bractées. Dans cette vaste famille, les inules se rapprochent des marguerites, avec deux types de fleurs : à la périphérie des demi-fleurons, donc des fleurs ligulées (ou languettes), au centre, des fleurons, fleurs tubulées (c'est-à-dire en forme de tube). Les demi-fleurons périphériques du genre Inula sont femelles, tandis que les fleurons du disque sont hermaphrodites.
-Les bractées de l'involucre sont inégales et disposées sur plusieurs rangs[2] (à la différence des Senecio et des Doronicum).
+Les bractées de l'involucre sont inégales et disposées sur plusieurs rangs (à la différence des Senecio et des Doronicum).
 Les fruits sont des akènes pourvus d'une aigrette de soie.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Inula acaulis
@@ -690,8 +708,43 @@
 Inula verrucosa
 Inula viscidula
 Inula wissmanniana
-Espèces auparavant classées dans le genre Inula
-Ces espèces ont été reclassées à la suite des récentes études phylogénétiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Inula</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inula</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces auparavant classées dans le genre Inula</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ces espèces ont été reclassées à la suite des récentes études phylogénétiques.
 Inula auriculata Boiss. &amp; Balansa =&gt; Pentanema auriculatum (Boiss. &amp; Balansa) D.Gut.Larr. et al.
 Inula britannica L. =&gt; Pentanema britannica (L.) D.Gut.Larr.et al.
 Inula conyzae (Griess.) Meikle =&gt; Pentanema squarrosum (L.) D.Gut.Larr.et al.
@@ -711,33 +764,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Inula</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Inula</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 24e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de l'aunée[3], généralement chaque 11 août du calendrier grégorien.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 24e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de l'aunée, généralement chaque 11 août du calendrier grégorien.
 </t>
         </is>
       </c>
